--- a/output/kruskal_wallis_test/anova_Q17_Gênero.xlsx
+++ b/output/kruskal_wallis_test/anova_Q17_Gênero.xlsx
@@ -365,13 +365,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.09531711725379</v>
+        <v>2.93723887486428</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0430021624138554</v>
+        <v>0.0865585796102041</v>
       </c>
     </row>
   </sheetData>
